--- a/data/hotels_by_city/Miami/Miami_shard_513.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_513.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,1350 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="460">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r621936329-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>60739</t>
+  </si>
+  <si>
+    <t>10625381</t>
+  </si>
+  <si>
+    <t>621936329</t>
+  </si>
+  <si>
+    <t>10/03/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>My family and I always try to stay here when I am working in the area.  The hotel is clean, safe, and has an amazing staff.  They always make things comfortable for me  and my family.  This hotel will always be my first choice when in the area!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Camper814888, Front Desk at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My family and I always try to stay here when I am working in the area.  The hotel is clean, safe, and has an amazing staff.  They always make things comfortable for me  and my family.  This hotel will always be my first choice when in the area!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r621624431-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>621624431</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>Very nice for the price very attentive staff and very clean room. Short drive to many wonderful sites, will definitely stay again.The only downside of the trip was the tropical storm that came thru on our first day. They even had grills outside for at home Convenience. Very well maintained property.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Very nice for the price very attentive staff and very clean room. Short drive to many wonderful sites, will definitely stay again.The only downside of the trip was the tropical storm that came thru on our first day. They even had grills outside for at home Convenience. Very well maintained property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r615169848-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>615169848</t>
+  </si>
+  <si>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location </t>
+  </si>
+  <si>
+    <t>We stayed here labor day weekend and the hotel is in a great central location. The staff were friendly and very accommodating. The free breakfast was okay. The selection was not that great. The food was pretty good, I just wished they had a larger selection of food. Our room was nice with a full kitchen and full size refrigerator. Overall this hotel is low priced and worth the stay in Homestead.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Brandon A, Front Desk at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded September 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here labor day weekend and the hotel is in a great central location. The staff were friendly and very accommodating. The free breakfast was okay. The selection was not that great. The food was pretty good, I just wished they had a larger selection of food. Our room was nice with a full kitchen and full size refrigerator. Overall this hotel is low priced and worth the stay in Homestead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r615065267-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>615065267</t>
+  </si>
+  <si>
+    <t>Best Hotel of My Trip</t>
+  </si>
+  <si>
+    <t>I spent a week exploring South Florida and this was my best hotel stay of my trip (and I can be somewhat picky about the places I stay). Friendly and efficient front desk, spacious and clean room (very well arranged), awesome shower design, handy kitchenette, thoughtful attention to the details. The location is convenient for stores, bars and restaurants and perfect for launching point to visit Miami, the Everglades and Biscayne National Parks, or the Keys. I can't wait to stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I spent a week exploring South Florida and this was my best hotel stay of my trip (and I can be somewhat picky about the places I stay). Friendly and efficient front desk, spacious and clean room (very well arranged), awesome shower design, handy kitchenette, thoughtful attention to the details. The location is convenient for stores, bars and restaurants and perfect for launching point to visit Miami, the Everglades and Biscayne National Parks, or the Keys. I can't wait to stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r607627537-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>607627537</t>
+  </si>
+  <si>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>SECOND TIME - STILL GREAT</t>
+  </si>
+  <si>
+    <t>I stayed here in 2016 shortly after the hotel had opened and it was great then.  It is STILL great.  Super nice hotel, very clean, friendly and welcoming.  The lobby is beautiful and modern.  The rooms are spacious, super clean and have fully equipped kitchens.  Plenty of free parking and a nice complimentary breakfast in the mornings.
+My suite had 2 queens, a kitchen, very nice bathroom (VERY clean) and the beds were soooo comfortable; sheets crisp and clean.  The TV is very nice and has Netflix on it (if that matters to anyone).  There was a dining room table that comfortably would seat 4 people, and a comfy chair in the room.  I loved the very large picture window because the surround area is very green and pretty, so it was nice to look out of.
+There is a beautiful outdoor pool around the back, and all around the hotel are trees and pretty plants - really a pretty hotel.
+I can't say much more than I did in my original review nearly 2 years ago - just that it is still a very nice hotel.  Oh, my rate this time was MUCH cheaper than it was before, I got a really good rate of under $100 (I would imagine the rates are seasonal because I paid a lot more before).
+As for the location, if you are on your way to the Keys, this is a fantastic stopover...I stayed here in 2016 shortly after the hotel had opened and it was great then.  It is STILL great.  Super nice hotel, very clean, friendly and welcoming.  The lobby is beautiful and modern.  The rooms are spacious, super clean and have fully equipped kitchens.  Plenty of free parking and a nice complimentary breakfast in the mornings.My suite had 2 queens, a kitchen, very nice bathroom (VERY clean) and the beds were soooo comfortable; sheets crisp and clean.  The TV is very nice and has Netflix on it (if that matters to anyone).  There was a dining room table that comfortably would seat 4 people, and a comfy chair in the room.  I loved the very large picture window because the surround area is very green and pretty, so it was nice to look out of.There is a beautiful outdoor pool around the back, and all around the hotel are trees and pretty plants - really a pretty hotel.I can't say much more than I did in my original review nearly 2 years ago - just that it is still a very nice hotel.  Oh, my rate this time was MUCH cheaper than it was before, I got a really good rate of under $100 (I would imagine the rates are seasonal because I paid a lot more before).As for the location, if you are on your way to the Keys, this is a fantastic stopover right before the road into the Keys; the entrance to that road is about 1 minute away.  There is a nice strip shopping center within walking distance with a Publix and several other shops (and a pizza place).  If you are visiting someone at Homestead Hospital, that is also walking distance (right next door).  The Palace Gardens Assisted Living is across the street, and within walking distance (a tad further, tho).  I cannot think of one thing bad to stay about this hotel - I'm thinking... - but there really isn't anything bad at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nicole D, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded August 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here in 2016 shortly after the hotel had opened and it was great then.  It is STILL great.  Super nice hotel, very clean, friendly and welcoming.  The lobby is beautiful and modern.  The rooms are spacious, super clean and have fully equipped kitchens.  Plenty of free parking and a nice complimentary breakfast in the mornings.
+My suite had 2 queens, a kitchen, very nice bathroom (VERY clean) and the beds were soooo comfortable; sheets crisp and clean.  The TV is very nice and has Netflix on it (if that matters to anyone).  There was a dining room table that comfortably would seat 4 people, and a comfy chair in the room.  I loved the very large picture window because the surround area is very green and pretty, so it was nice to look out of.
+There is a beautiful outdoor pool around the back, and all around the hotel are trees and pretty plants - really a pretty hotel.
+I can't say much more than I did in my original review nearly 2 years ago - just that it is still a very nice hotel.  Oh, my rate this time was MUCH cheaper than it was before, I got a really good rate of under $100 (I would imagine the rates are seasonal because I paid a lot more before).
+As for the location, if you are on your way to the Keys, this is a fantastic stopover...I stayed here in 2016 shortly after the hotel had opened and it was great then.  It is STILL great.  Super nice hotel, very clean, friendly and welcoming.  The lobby is beautiful and modern.  The rooms are spacious, super clean and have fully equipped kitchens.  Plenty of free parking and a nice complimentary breakfast in the mornings.My suite had 2 queens, a kitchen, very nice bathroom (VERY clean) and the beds were soooo comfortable; sheets crisp and clean.  The TV is very nice and has Netflix on it (if that matters to anyone).  There was a dining room table that comfortably would seat 4 people, and a comfy chair in the room.  I loved the very large picture window because the surround area is very green and pretty, so it was nice to look out of.There is a beautiful outdoor pool around the back, and all around the hotel are trees and pretty plants - really a pretty hotel.I can't say much more than I did in my original review nearly 2 years ago - just that it is still a very nice hotel.  Oh, my rate this time was MUCH cheaper than it was before, I got a really good rate of under $100 (I would imagine the rates are seasonal because I paid a lot more before).As for the location, if you are on your way to the Keys, this is a fantastic stopover right before the road into the Keys; the entrance to that road is about 1 minute away.  There is a nice strip shopping center within walking distance with a Publix and several other shops (and a pizza place).  If you are visiting someone at Homestead Hospital, that is also walking distance (right next door).  The Palace Gardens Assisted Living is across the street, and within walking distance (a tad further, tho).  I cannot think of one thing bad to stay about this hotel - I'm thinking... - but there really isn't anything bad at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r597481888-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>597481888</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Clean and spacious</t>
+  </si>
+  <si>
+    <t>I stayed here on a one night stop over to visit Everglades National park before heading down to the keys. I was pleasantly surprised. Although I am quite picky, I was happy with all aspects of this hotel and I firmly believe this is the best choice of any area hotel. Everything was very clean. (This includes all the common areas, elevators and hallways). My room was also spotless and I thought the beds were comfortable.  I also thought the location to shops and restaurants was convenient. There's a nearby Wendy,s,Chilis,Olive Garden and Kohls. It was a very easy ride to the Everglades. If I ever return to this area, I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aramis J, Front Desk Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded July 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here on a one night stop over to visit Everglades National park before heading down to the keys. I was pleasantly surprised. Although I am quite picky, I was happy with all aspects of this hotel and I firmly believe this is the best choice of any area hotel. Everything was very clean. (This includes all the common areas, elevators and hallways). My room was also spotless and I thought the beds were comfortable.  I also thought the location to shops and restaurants was convenient. There's a nearby Wendy,s,Chilis,Olive Garden and Kohls. It was a very easy ride to the Everglades. If I ever return to this area, I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r594965149-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>594965149</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>The rooms are very large almost a suite. Nice small swimming pool out side. You can have breakfast out clos to the swimming pool. Nice american breakfast , waffles, sausages  omelet and a good choice of beverageMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Aramis J, Front Desk Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
+  </si>
+  <si>
+    <t>The rooms are very large almost a suite. Nice small swimming pool out side. You can have breakfast out clos to the swimming pool. Nice american breakfast , waffles, sausages  omelet and a good choice of beverageMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r594167254-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>594167254</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>Nice one night stay and launching point for driving to Key West</t>
+  </si>
+  <si>
+    <t>Had a brief but good stay at the Towneplace Suites by Marriott Miami Homestead.  We paid for the larger 2 bedroom suite and wound up with the handicapped room on the 1st floor (we didn't require that but it worked out fine).  Lots of room and space for our family of 5.  Convenient launching off place to get to the keys.  Would stay again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Aramis J, Front Desk Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Had a brief but good stay at the Towneplace Suites by Marriott Miami Homestead.  We paid for the larger 2 bedroom suite and wound up with the handicapped room on the 1st floor (we didn't require that but it worked out fine).  Lots of room and space for our family of 5.  Convenient launching off place to get to the keys.  Would stay again if in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r591558768-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>591558768</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Outstanding Staff</t>
+  </si>
+  <si>
+    <t>I recently stayed here on two separate nights with my parents on our way to Key West and on our way back. Such a nice modern hotel. We stayed in a 1BR suite. I slept on the sofa bed, which I must say is quite small and had a very thin uncomfortable mattress. I'd say it designed for kids. The staff was quick to send up extra padding to make the bed more comfortable. When we checked out the front desk attendant flagged our returning reservation with a special request for a memory foam mattress. When we arrived for our return trip housekeeping not only brought up an extra mattress for the sofa bed, but they also completely made up the bed for me! Nice pool and breakfast included hot items such as omelets and sausage.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Aramis J, Front Desk Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>I recently stayed here on two separate nights with my parents on our way to Key West and on our way back. Such a nice modern hotel. We stayed in a 1BR suite. I slept on the sofa bed, which I must say is quite small and had a very thin uncomfortable mattress. I'd say it designed for kids. The staff was quick to send up extra padding to make the bed more comfortable. When we checked out the front desk attendant flagged our returning reservation with a special request for a memory foam mattress. When we arrived for our return trip housekeeping not only brought up an extra mattress for the sofa bed, but they also completely made up the bed for me! Nice pool and breakfast included hot items such as omelets and sausage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r583697046-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>583697046</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Impressed with this Marriott property</t>
+  </si>
+  <si>
+    <t>Friends and I picked up my brother late from MIA and made a stop here for a trip to Key West next morning.  Rooms are new and updated, got our Marriott upgrade for a 2/1 suite and had a relaxing stay.  Breakfast/coffee and the pantry by the front desk all good.  Definitely would make a return trip when needed in the future.  Not really a destination hotel, but if you wanted a cheaper option to visit the Keys and stay up away from the crowds this could be a good space.  About a 30-40 minute drive to MIA down the turnpike and another 30 or so to Key Largo.  Not a ton of food options around it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Friends and I picked up my brother late from MIA and made a stop here for a trip to Key West next morning.  Rooms are new and updated, got our Marriott upgrade for a 2/1 suite and had a relaxing stay.  Breakfast/coffee and the pantry by the front desk all good.  Definitely would make a return trip when needed in the future.  Not really a destination hotel, but if you wanted a cheaper option to visit the Keys and stay up away from the crowds this could be a good space.  About a 30-40 minute drive to MIA down the turnpike and another 30 or so to Key Largo.  Not a ton of food options around it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r577511687-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>577511687</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>A great stopover between the Everglades &amp; the Keys</t>
+  </si>
+  <si>
+    <t>Nice new motel that is in a quiet spot. We were looking for a room with two queen beds, they upgraded us to a 1 bedroom suite because we were staying for two nights. The room was well appointed, though there was a bit of a dog smell when coming back into the room for the day.  Breakfast was included and well stocked. The pool area was nice to use.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new motel that is in a quiet spot. We were looking for a room with two queen beds, they upgraded us to a 1 bedroom suite because we were staying for two nights. The room was well appointed, though there was a bit of a dog smell when coming back into the room for the day.  Breakfast was included and well stocked. The pool area was nice to use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r574472628-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>574472628</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Precruise stay</t>
+  </si>
+  <si>
+    <t>Stayed 3 nites prior to cruise - great hotel and great location.  Easy access to key west and Everglades   Short drive to cruise docks.   Everything about stay including breakfasts was excellent.   Friendly staff and lots of local restaurant choicesMoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Stayed 3 nites prior to cruise - great hotel and great location.  Easy access to key west and Everglades   Short drive to cruise docks.   Everything about stay including breakfasts was excellent.   Friendly staff and lots of local restaurant choicesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r568158140-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>568158140</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Absolutely Outstanding !!!</t>
+  </si>
+  <si>
+    <t>My second visit to this great hotel.   And I will always return while visiting South Florida.Most important.......the staff is marvelous, the hotel is spotless and is convenient to shopping and resturants.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>My second visit to this great hotel.   And I will always return while visiting South Florida.Most important.......the staff is marvelous, the hotel is spotless and is convenient to shopping and resturants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r567315654-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>567315654</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Dive trip</t>
+  </si>
+  <si>
+    <t>My husband and I scheduled a last minute dive trip to Key Largo/ Islamorada and couldn’t find a reasonably priced AND REVIEWED hotel near there. We stumbled upon Townplace and I’m so glad we did.  Although it was 45 mins from our dive destination, the drive to and from wasn’t bad. We give this hotel get a 5 stars for everything. The hotel and our room was clean including the baseboards, corners of the tile, and grout lines. Bed was comfy as well. The service from the staff was pleasant and helpful. The free breakfast in the morning was delicious. I’m glad we stayed and ate there instead of spending money at a restaurant.   We definitely recommend staying here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sasha R, Guest Service Representative at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I scheduled a last minute dive trip to Key Largo/ Islamorada and couldn’t find a reasonably priced AND REVIEWED hotel near there. We stumbled upon Townplace and I’m so glad we did.  Although it was 45 mins from our dive destination, the drive to and from wasn’t bad. We give this hotel get a 5 stars for everything. The hotel and our room was clean including the baseboards, corners of the tile, and grout lines. Bed was comfy as well. The service from the staff was pleasant and helpful. The free breakfast in the morning was delicious. I’m glad we stayed and ate there instead of spending money at a restaurant.   We definitely recommend staying here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r565333018-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>565333018</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Solid Marriott Property</t>
+  </si>
+  <si>
+    <t>This is a newer, solid Marriott property.  The staff was great, breakfast good, and the grounds with a pool and large patio area allowed us to enjoy the warm winter weather.Many guests took advantage of the grills as the staff provided all necessary cooking utensils and spices.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sasha R, Front Desk Agent at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>This is a newer, solid Marriott property.  The staff was great, breakfast good, and the grounds with a pool and large patio area allowed us to enjoy the warm winter weather.Many guests took advantage of the grills as the staff provided all necessary cooking utensils and spices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r565181655-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>565181655</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Tried, liked and extended our stay</t>
+  </si>
+  <si>
+    <t>We booked this place not really knowing what to expect and was so delighted with all aspects of our stay we added a couple more days.  Initially we had trouble finding the hotel as Booking . Com had the incorrect address on their website (sould have been Terrace instead of road), we rang the hotel and was given correct directions.  All the staff were exceptionally freindly and this together with the high quality accomadation led us to doubling our stay and cancelling a high quality hotel in Miami.  The hotel is just like new, the rooms have a kitchen area with dish washer, fridge freezer and microwave.  In addition to all this you can use the gas bbq near the pool area or borrow other cooking appliances.  All was spotlessly clean.  Breakfast was also included and was more than adequate.  Thankyou to the lady who have us directions and the young reception guy as they both enhanced our stay by going the extra mile with their engaging, friendly and knowledgeable characters.  Apologies that we didn't remember your names but thank you so much for helping make our stay so enjoyable.  What a really nice place to stay, well placed for a stop over for a few days when travelling down the Keys.  Every shop and restaurant within a few miles you could ever want.  We are not that easy to please (read some of our other reviews) and you will...We booked this place not really knowing what to expect and was so delighted with all aspects of our stay we added a couple more days.  Initially we had trouble finding the hotel as Booking . Com had the incorrect address on their website (sould have been Terrace instead of road), we rang the hotel and was given correct directions.  All the staff were exceptionally freindly and this together with the high quality accomadation led us to doubling our stay and cancelling a high quality hotel in Miami.  The hotel is just like new, the rooms have a kitchen area with dish washer, fridge freezer and microwave.  In addition to all this you can use the gas bbq near the pool area or borrow other cooking appliances.  All was spotlessly clean.  Breakfast was also included and was more than adequate.  Thankyou to the lady who have us directions and the young reception guy as they both enhanced our stay by going the extra mile with their engaging, friendly and knowledgeable characters.  Apologies that we didn't remember your names but thank you so much for helping make our stay so enjoyable.  What a really nice place to stay, well placed for a stop over for a few days when travelling down the Keys.  Every shop and restaurant within a few miles you could ever want.  We are not that easy to please (read some of our other reviews) and you will see that this hotel really must have impressed.  Thanks again, best customer service we have had in over 30 years of travelling around America and many other places around the world.  5 stars well deserved.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sasha R, Guest Services at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>We booked this place not really knowing what to expect and was so delighted with all aspects of our stay we added a couple more days.  Initially we had trouble finding the hotel as Booking . Com had the incorrect address on their website (sould have been Terrace instead of road), we rang the hotel and was given correct directions.  All the staff were exceptionally freindly and this together with the high quality accomadation led us to doubling our stay and cancelling a high quality hotel in Miami.  The hotel is just like new, the rooms have a kitchen area with dish washer, fridge freezer and microwave.  In addition to all this you can use the gas bbq near the pool area or borrow other cooking appliances.  All was spotlessly clean.  Breakfast was also included and was more than adequate.  Thankyou to the lady who have us directions and the young reception guy as they both enhanced our stay by going the extra mile with their engaging, friendly and knowledgeable characters.  Apologies that we didn't remember your names but thank you so much for helping make our stay so enjoyable.  What a really nice place to stay, well placed for a stop over for a few days when travelling down the Keys.  Every shop and restaurant within a few miles you could ever want.  We are not that easy to please (read some of our other reviews) and you will...We booked this place not really knowing what to expect and was so delighted with all aspects of our stay we added a couple more days.  Initially we had trouble finding the hotel as Booking . Com had the incorrect address on their website (sould have been Terrace instead of road), we rang the hotel and was given correct directions.  All the staff were exceptionally freindly and this together with the high quality accomadation led us to doubling our stay and cancelling a high quality hotel in Miami.  The hotel is just like new, the rooms have a kitchen area with dish washer, fridge freezer and microwave.  In addition to all this you can use the gas bbq near the pool area or borrow other cooking appliances.  All was spotlessly clean.  Breakfast was also included and was more than adequate.  Thankyou to the lady who have us directions and the young reception guy as they both enhanced our stay by going the extra mile with their engaging, friendly and knowledgeable characters.  Apologies that we didn't remember your names but thank you so much for helping make our stay so enjoyable.  What a really nice place to stay, well placed for a stop over for a few days when travelling down the Keys.  Every shop and restaurant within a few miles you could ever want.  We are not that easy to please (read some of our other reviews) and you will see that this hotel really must have impressed.  Thanks again, best customer service we have had in over 30 years of travelling around America and many other places around the world.  5 stars well deserved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r563381028-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>563381028</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Best front desk staff member</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and attended a wedding in the area.  The hotel staff was friendly especially Sasha, who was the front desk member and checked me in and out.  She was very helpful, professional, and answered any question I had because I never been to Homestead before.Thank you Towneplace suites for hiring such a great person (Sasha) who truly reflects your brand.  I travel quite often for Business and always take the time to thank the people that make my stay relaxed and enjoyable.The room was spacious and comfortable as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Sasha R, Guest Service Representative at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded March 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel and attended a wedding in the area.  The hotel staff was friendly especially Sasha, who was the front desk member and checked me in and out.  She was very helpful, professional, and answered any question I had because I never been to Homestead before.Thank you Towneplace suites for hiring such a great person (Sasha) who truly reflects your brand.  I travel quite often for Business and always take the time to thank the people that make my stay relaxed and enjoyable.The room was spacious and comfortable as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r559045105-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>559045105</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>First stay at a Towneplace. The room was not well insulated, could hear conversations in the next room but with the AC running and bedroom door closed it wasn't too bad. The staff here was excellent. The suite and kitchen therein were clean, well maintained and comfortable.  The appliances worked which is more than I can say for some of the suites at higher end Marriott properties in Florida.  The breakfast was a welcome surprise with a selection of yogurt and other healthy options for those of us who prefer a well balanced meal over cereal and whole milk.  The hotel had some good perks like board games, appliance borrowing privileges, a pool, decent workout room, and ideal location just far enough away from the airport to make it the perfect stop over after a late flight en route to the Keys.  Will definitely stay again on our next trip.  From the pleasant greeting we got from Genisis upon arrival to the impeccable service in the breakfast room from the staff there our stay was very pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Sasha R, Guest Service Representative at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>First stay at a Towneplace. The room was not well insulated, could hear conversations in the next room but with the AC running and bedroom door closed it wasn't too bad. The staff here was excellent. The suite and kitchen therein were clean, well maintained and comfortable.  The appliances worked which is more than I can say for some of the suites at higher end Marriott properties in Florida.  The breakfast was a welcome surprise with a selection of yogurt and other healthy options for those of us who prefer a well balanced meal over cereal and whole milk.  The hotel had some good perks like board games, appliance borrowing privileges, a pool, decent workout room, and ideal location just far enough away from the airport to make it the perfect stop over after a late flight en route to the Keys.  Will definitely stay again on our next trip.  From the pleasant greeting we got from Genisis upon arrival to the impeccable service in the breakfast room from the staff there our stay was very pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r559034238-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>559034238</t>
+  </si>
+  <si>
+    <t>Best front desk staff</t>
+  </si>
+  <si>
+    <t>Sasha, Genessis, and Nicole are the best staff in the industry. I stayed at this location a few weeks ago and the customer service was top notch. Always greeted with a smile. They know the area very well and recommended excellent restaurants. It is now my hotel of choice when I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sasha, Genessis, and Nicole are the best staff in the industry. I stayed at this location a few weeks ago and the customer service was top notch. Always greeted with a smile. They know the area very well and recommended excellent restaurants. It is now my hotel of choice when I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r553157109-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>553157109</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Perfect Towneplace suites</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel with the family. Room was very spacious and comfortable. They provide free breakfast. It is neat and clean property. The staff is very friendly  and well mannered. Overall experience of staying to this hotel was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Sasha R, Guest Services at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel with the family. Room was very spacious and comfortable. They provide free breakfast. It is neat and clean property. The staff is very friendly  and well mannered. Overall experience of staying to this hotel was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r552922725-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>552922725</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Homely Hotel</t>
+  </si>
+  <si>
+    <t>Towneplace is a home away from home. We enjoyed staying there. The hotel provides pantry in the room. Rooms are spacious. Breakfast is complimentary and wholesome. The hotel staff is friendly. Tourist attractions and several eating joints are nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Towneplace is a home away from home. We enjoyed staying there. The hotel provides pantry in the room. Rooms are spacious. Breakfast is complimentary and wholesome. The hotel staff is friendly. Tourist attractions and several eating joints are nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r548398609-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>548398609</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Awsome!</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and the rooms was comfortable..SASHA!! made my stay feel great! Thanks to all the staff and housekeeping for they're kindness.. The pool, breakfast, and the  was greatSee you guys Again this christmas eve.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and the rooms was comfortable..SASHA!! made my stay feel great! Thanks to all the staff and housekeeping for they're kindness.. The pool, breakfast, and the  was greatSee you guys Again this christmas eve.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r543565144-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>543565144</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Great Towneplace Suites</t>
+  </si>
+  <si>
+    <t>Nice hotel in a quiet tucked away location. Rooms and hotel are very clean and comfortable. We stayed in a King studio. This Towneplace Suites in Homestead is the complete opposite of the Towneplace Suites in Miami Lakes that we just stayed in the night before, which was horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel in a quiet tucked away location. Rooms and hotel are very clean and comfortable. We stayed in a King studio. This Towneplace Suites in Homestead is the complete opposite of the Towneplace Suites in Miami Lakes that we just stayed in the night before, which was horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r518473952-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>518473952</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>A nice surprise</t>
+  </si>
+  <si>
+    <t>Spotless, seemingly brand new facility. We were on our way from Fort Lauderdale to the Keys after an afternoon flight. This was a great stopover point and a nice place. Good breakfast, nice staff. Would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Spotless, seemingly brand new facility. We were on our way from Fort Lauderdale to the Keys after an afternoon flight. This was a great stopover point and a nice place. Good breakfast, nice staff. Would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r514315577-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>514315577</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd give more than 5 stars if it were possible </t>
+  </si>
+  <si>
+    <t>My wife and I thoroughly enjoyed the nearly 3 months we stayed. Fantastic facility. Always greeted by name and a smile. Clean rooms, attention to detail, excellent staff/employees from top to bottom which is a credit to the management, who should be proud. We felt very much at home, here. Exceeded all expectations. Well done. Bravo.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I thoroughly enjoyed the nearly 3 months we stayed. Fantastic facility. Always greeted by name and a smile. Clean rooms, attention to detail, excellent staff/employees from top to bottom which is a credit to the management, who should be proud. We felt very much at home, here. Exceeded all expectations. Well done. Bravo.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r510681931-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>510681931</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Should have been a good Stay before the Keys</t>
+  </si>
+  <si>
+    <t>Only 1 night needed, booked with reward points, the check-in was flawless, then at about 4:30AM the smoke detector alarm battery CHIRPING went off......CHIRPING every 2 minutes until I finally went downstairs and spoke with the two staff people....Who said ..."we will talk to the management and see what they can do". Well, they did nothing, management did nothing and what should have been a nice rest before driving the rest of the way to the keys was disrupted by poor maintenance practices. I'm sure if there would have been a fire this would have been a VERY UNSAFE environment to be in. If you're going to stay, cross your fingers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Only 1 night needed, booked with reward points, the check-in was flawless, then at about 4:30AM the smoke detector alarm battery CHIRPING went off......CHIRPING every 2 minutes until I finally went downstairs and spoke with the two staff people....Who said ..."we will talk to the management and see what they can do". Well, they did nothing, management did nothing and what should have been a nice rest before driving the rest of the way to the keys was disrupted by poor maintenance practices. I'm sure if there would have been a fire this would have been a VERY UNSAFE environment to be in. If you're going to stay, cross your fingers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r504164255-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>504164255</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>Went here for a girls weekend (we had a deal)  The rooms were clean and spacious. The mini kitchen was ideal for warming up takeout and was complete with 2 burners, mini dishwasher, and fridge.  Many people staying here were on business and extended stay. The common area was clean and there was adequate seating during breakfast. The breakfast offerings were generous and some of the best I have seen.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Went here for a girls weekend (we had a deal)  The rooms were clean and spacious. The mini kitchen was ideal for warming up takeout and was complete with 2 burners, mini dishwasher, and fridge.  Many people staying here were on business and extended stay. The common area was clean and there was adequate seating during breakfast. The breakfast offerings were generous and some of the best I have seen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r500438473-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>500438473</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great stop before the Keys</t>
+  </si>
+  <si>
+    <t>Spent the night here prior to a week on the Keys.  Beautifully appointed hotel, rooms were very clean, kids enjoyed the pool and workout room, nice to have the kitchen included.  We had the two bedroom suite, which allowed plenty of room for the kids to feel at home, and worked nicely to accommodate two families traveling together. Good breakfast and helpful front desk staff, plus a great location close to restaurants, Publix, and shopping.  Highly recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Sovannkiry T, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Spent the night here prior to a week on the Keys.  Beautifully appointed hotel, rooms were very clean, kids enjoyed the pool and workout room, nice to have the kitchen included.  We had the two bedroom suite, which allowed plenty of room for the kids to feel at home, and worked nicely to accommodate two families traveling together. Good breakfast and helpful front desk staff, plus a great location close to restaurants, Publix, and shopping.  Highly recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r499812009-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>499812009</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great quality Marriott property, not because it's pretty new, it's because the Staff(Daniel and K), and the house keeping staff are professional and friendly. You can tell they work hard to keep the property moving in the right direction.Take Care..JamesMoreShow less</t>
+  </si>
+  <si>
+    <t>Sovannkiry T, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Great quality Marriott property, not because it's pretty new, it's because the Staff(Daniel and K), and the house keeping staff are professional and friendly. You can tell they work hard to keep the property moving in the right direction.Take Care..JamesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r496189828-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>496189828</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>We had a very good stay here. They got spacious with a seating area and a fully stocked kitchen. The beds are very comfy and the bathroom was very good too. In the morning there is a warm free breakfast - nice! In the fitness room they have everything for a quick workout and there's pool to relax also. Free parking is avaialble. The staff was very friendly and welcoming. I can definitly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>We had a very good stay here. They got spacious with a seating area and a fully stocked kitchen. The beds are very comfy and the bathroom was very good too. In the morning there is a warm free breakfast - nice! In the fitness room they have everything for a quick workout and there's pool to relax also. Free parking is avaialble. The staff was very friendly and welcoming. I can definitly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r492265969-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>492265969</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We come to Homestead every two weeks. We always book this property. The staff is great! Sasha and Kiry on the desk are so friendly. Manuel, maintenance, was AWESOME this trip when we had a problem with AC.  Already booked a room for our bext trip. Yup! It's at TownPlace Suites Homestead!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>We come to Homestead every two weeks. We always book this property. The staff is great! Sasha and Kiry on the desk are so friendly. Manuel, maintenance, was AWESOME this trip when we had a problem with AC.  Already booked a room for our bext trip. Yup! It's at TownPlace Suites Homestead!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r489863157-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>489863157</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Really, really good</t>
+  </si>
+  <si>
+    <t>Fantastic! These folks really go above and beyond, and the property is pristine. Breakfast is great. Rooms are comfortable with plenty of storage space. The pool is gorgeous and the fitness room is top notch. Could not ask for more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Sovannkiry T, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2017</t>
+  </si>
+  <si>
+    <t>Fantastic! These folks really go above and beyond, and the property is pristine. Breakfast is great. Rooms are comfortable with plenty of storage space. The pool is gorgeous and the fitness room is top notch. Could not ask for more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r489190622-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>489190622</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Clean comfortable hotel</t>
+  </si>
+  <si>
+    <t>We visited here on way from miami airport to Key West. Our flight arrived at 6.30am and although check in time isn't until 3pm thankfully our room was ready and we could have a snooze. Room clean and comfortable. Excellent shower. Not much around except outlet malls but handy if visiting Everglades or on the way to the KeysMoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>We visited here on way from miami airport to Key West. Our flight arrived at 6.30am and although check in time isn't until 3pm thankfully our room was ready and we could have a snooze. Room clean and comfortable. Excellent shower. Not much around except outlet malls but handy if visiting Everglades or on the way to the KeysMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r486679920-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>486679920</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>A home away from home!</t>
+  </si>
+  <si>
+    <t>I recently spent several very comfortable and pleasant days at Towneplace Suites. This was my first visit and it will not be my last. I was very impressed by the friendly and accommodating staff, from the front desk, to housekeeping, and the breakfast kitchen. All went over and beyond the typical chain experience to make it a personal experience. They were genuine and helpful with each request, and I had many! My room was a generous king suite with a full kitchen. The bed and and other amenities were perfect and well maintained. I lacked for nothing. This is a very cozy, initiate, and quiet property tucked around the corner from two larger hotels with a pool and convenient parking. MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently spent several very comfortable and pleasant days at Towneplace Suites. This was my first visit and it will not be my last. I was very impressed by the friendly and accommodating staff, from the front desk, to housekeeping, and the breakfast kitchen. All went over and beyond the typical chain experience to make it a personal experience. They were genuine and helpful with each request, and I had many! My room was a generous king suite with a full kitchen. The bed and and other amenities were perfect and well maintained. I lacked for nothing. This is a very cozy, initiate, and quiet property tucked around the corner from two larger hotels with a pool and convenient parking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r483520317-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>483520317</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Miller </t>
+  </si>
+  <si>
+    <t>The absolutely definition of excellence! Wonderful staff, immaculate rooms, so many amenities you cant make your mind up which one you want to do first. The ONLY place to stay when visiting the Keys. They go completely out of their way to make sure you want for nothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sovannkiry T, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>The absolutely definition of excellence! Wonderful staff, immaculate rooms, so many amenities you cant make your mind up which one you want to do first. The ONLY place to stay when visiting the Keys. They go completely out of their way to make sure you want for nothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r483167788-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>483167788</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay just north of the keys</t>
+  </si>
+  <si>
+    <t>This is a wonderful property with lots of amenities! The staff is attentive and very polite and are eager to help in any way they can. Sylvia Recalde the GM, does a wonderful job making sure everything runs smoothly at this property. The grill area is very inviting and a great place to throw something on the Weber grill and meet other hotel guests. Perfect for business travelers who are in town for a while with work, or for those who are just stopping by on their way to the keys.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>This is a wonderful property with lots of amenities! The staff is attentive and very polite and are eager to help in any way they can. Sylvia Recalde the GM, does a wonderful job making sure everything runs smoothly at this property. The grill area is very inviting and a great place to throw something on the Weber grill and meet other hotel guests. Perfect for business travelers who are in town for a while with work, or for those who are just stopping by on their way to the keys.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r480612617-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>480612617</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>My family and I traveled from Atlanta, GA to the Keys and made a stop at this hotel.  At first we were just looking for a place to stay and rest before continuing our journey.  At check in the staff was very friendly and recommended several places nearby and on the way to the keys.  The room was very spacious and great for a family.  This hotel is great if you are planning to stay either one night (like we did) or a longer stay.  Great value for your money.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>My family and I traveled from Atlanta, GA to the Keys and made a stop at this hotel.  At first we were just looking for a place to stay and rest before continuing our journey.  At check in the staff was very friendly and recommended several places nearby and on the way to the keys.  The room was very spacious and great for a family.  This hotel is great if you are planning to stay either one night (like we did) or a longer stay.  Great value for your money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r478564691-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>478564691</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>What a shame. I expected more from a Marriott</t>
+  </si>
+  <si>
+    <t>So I really thought I would be giving this property a amazing review since it was new and very well done with great amenities. But due to fact that they have t obviously lowered there standards when hiring there manager since it is slim pickings in that area that I why I only rate it a one. Most all the staff I encountered there were very nice and helpful which is a miracle since there manager is a condescending, worthless excuse of an employee Marriott you should really reconsider who you have as a manager at this location, a manager be a mentor and to lead by example for there employees, it is amazing all others are so friendly. So let's get to it Sylvia the manager does not know how to handle guest complaints very well and has a superiority complex when challenged on a subject she obviously is not well I trained on I always say if you are unsure of an answer to a question then do the research to get the correct one before saying anything. Most customers are willing to wait for a informed answer especially when it has to do with money in my case it was regarding billing practices of this property. I will say that all the employees I spoke to regarding authorized money on my account were all clueless as to procedure of this part of the reservation system which in...So I really thought I would be giving this property a amazing review since it was new and very well done with great amenities. But due to fact that they have t obviously lowered there standards when hiring there manager since it is slim pickings in that area that I why I only rate it a one. Most all the staff I encountered there were very nice and helpful which is a miracle since there manager is a condescending, worthless excuse of an employee Marriott you should really reconsider who you have as a manager at this location, a manager be a mentor and to lead by example for there employees, it is amazing all others are so friendly. So let's get to it Sylvia the manager does not know how to handle guest complaints very well and has a superiority complex when challenged on a subject she obviously is not well I trained on I always say if you are unsure of an answer to a question then do the research to get the correct one before saying anything. Most customers are willing to wait for a informed answer especially when it has to do with money in my case it was regarding billing practices of this property. I will say that all the employees I spoke to regarding authorized money on my account were all clueless as to procedure of this part of the reservation system which in the end is the manager response ability to train her employees but do to her lack of training what do you expect. My questions to Sylvia were regarding pending charges during my stay and after, first charges showed up for $310 the day after we checked in I spoke with front desk personal and what I was told was that they did not do this that they only authorize for $20 a day for incidentals this was on a Sunday so I had to wait till Monday to speak with my bank. I did call and as I suspected the pending charges were put through by the hotel, the next day they disappeared, then there was another pending charge for $540 I did not even bother to speak to anyone at the hotel regarding this since I knew I had not used the card for anything else and low and behold this charge also disappeared the next day. Then two more for $90.00 which I did question front desk employee at check out and again the look of confusion on his face to which he could give me no clear explanation. He handed me my final bill and I went on my way no signature requested by the way at check in or check out. So now I have my final receipt but no pending charges showing on my account. Two days later I have two pending charges one for my final bill and another for another $523 which were both put there by this property, per my bank. I called the hotel to ask for a explanation of all that had occurred during our stay with all the different dollar amounts pending  on my bank account and all I was told was that we have a sign stating when using a debit card it takes 3 to 5 days for pending charges to fall off. I completely understand this as I have worked in three different hotels myself, also I was told that there system runs every 12 hours and will continue to authorize for more funds if needed??? What? I was also insulted by Sylvia pretty much by her stating that she is not calling me a liar in regards to my knowledge of hotel operations well Sylvia just in case you believe that I know nothing which system does Marriott use I have experience with Epitome, Opera and Roommaster???? If you need training on any of these let me know.Well due to fact I could not get an answer to my questions and that my account is now in over draft due to the property billing procedures I called corporate customer service and opened a complaint case with them and I will hopefully get some explanations this way. Sorry Marriott I expected a lot more from a hotel chain such as yourselfMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>So I really thought I would be giving this property a amazing review since it was new and very well done with great amenities. But due to fact that they have t obviously lowered there standards when hiring there manager since it is slim pickings in that area that I why I only rate it a one. Most all the staff I encountered there were very nice and helpful which is a miracle since there manager is a condescending, worthless excuse of an employee Marriott you should really reconsider who you have as a manager at this location, a manager be a mentor and to lead by example for there employees, it is amazing all others are so friendly. So let's get to it Sylvia the manager does not know how to handle guest complaints very well and has a superiority complex when challenged on a subject she obviously is not well I trained on I always say if you are unsure of an answer to a question then do the research to get the correct one before saying anything. Most customers are willing to wait for a informed answer especially when it has to do with money in my case it was regarding billing practices of this property. I will say that all the employees I spoke to regarding authorized money on my account were all clueless as to procedure of this part of the reservation system which in...So I really thought I would be giving this property a amazing review since it was new and very well done with great amenities. But due to fact that they have t obviously lowered there standards when hiring there manager since it is slim pickings in that area that I why I only rate it a one. Most all the staff I encountered there were very nice and helpful which is a miracle since there manager is a condescending, worthless excuse of an employee Marriott you should really reconsider who you have as a manager at this location, a manager be a mentor and to lead by example for there employees, it is amazing all others are so friendly. So let's get to it Sylvia the manager does not know how to handle guest complaints very well and has a superiority complex when challenged on a subject she obviously is not well I trained on I always say if you are unsure of an answer to a question then do the research to get the correct one before saying anything. Most customers are willing to wait for a informed answer especially when it has to do with money in my case it was regarding billing practices of this property. I will say that all the employees I spoke to regarding authorized money on my account were all clueless as to procedure of this part of the reservation system which in the end is the manager response ability to train her employees but do to her lack of training what do you expect. My questions to Sylvia were regarding pending charges during my stay and after, first charges showed up for $310 the day after we checked in I spoke with front desk personal and what I was told was that they did not do this that they only authorize for $20 a day for incidentals this was on a Sunday so I had to wait till Monday to speak with my bank. I did call and as I suspected the pending charges were put through by the hotel, the next day they disappeared, then there was another pending charge for $540 I did not even bother to speak to anyone at the hotel regarding this since I knew I had not used the card for anything else and low and behold this charge also disappeared the next day. Then two more for $90.00 which I did question front desk employee at check out and again the look of confusion on his face to which he could give me no clear explanation. He handed me my final bill and I went on my way no signature requested by the way at check in or check out. So now I have my final receipt but no pending charges showing on my account. Two days later I have two pending charges one for my final bill and another for another $523 which were both put there by this property, per my bank. I called the hotel to ask for a explanation of all that had occurred during our stay with all the different dollar amounts pending  on my bank account and all I was told was that we have a sign stating when using a debit card it takes 3 to 5 days for pending charges to fall off. I completely understand this as I have worked in three different hotels myself, also I was told that there system runs every 12 hours and will continue to authorize for more funds if needed??? What? I was also insulted by Sylvia pretty much by her stating that she is not calling me a liar in regards to my knowledge of hotel operations well Sylvia just in case you believe that I know nothing which system does Marriott use I have experience with Epitome, Opera and Roommaster???? If you need training on any of these let me know.Well due to fact I could not get an answer to my questions and that my account is now in over draft due to the property billing procedures I called corporate customer service and opened a complaint case with them and I will hopefully get some explanations this way. Sorry Marriott I expected a lot more from a hotel chain such as yourselfMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r473345411-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>473345411</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Very attentive and personable staff. Location is great for visiting the keys and the Everglades. The facility is brand new with outdoor heated swimming pool. We traveled as a family of 5 and stayed at the 2 Bdr 2 bath suite which was spacious and clean. Daily complimentary breakfast and lots of parking. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Very attentive and personable staff. Location is great for visiting the keys and the Everglades. The facility is brand new with outdoor heated swimming pool. We traveled as a family of 5 and stayed at the 2 Bdr 2 bath suite which was spacious and clean. Daily complimentary breakfast and lots of parking. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r471376071-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>471376071</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Enchanting front desk:Richard Lawrence &amp; Daniel Vasquez many thanks!</t>
+  </si>
+  <si>
+    <t>My stay lasted a week and a half as I recently relocated to Florida and was looking for properties as well as conducting business. My wife and I needed some important documents scanned. Mr. Richard Lawrence not only scanned them but was kind enough to email them to me and took the time to politely chat while I waited. A few days later, I required new keys for a new check in and Mr.Daniel Vasquez remembered my name and addressed me with sincere respect. Having been to over 30 different Marriot hotels on the east coast from New York to Miami, I would say these two are the top of the service chain. Honestly, I am a pretty laid back man but my wife has high standards. We spend a good deal of time travelling. When you're tired and need a place to recover, good, genuine service is becoming rare. Even at Marriott. Thankfully, a few god sends like these two showed up and I couldn't be more grateful for their caring, kindness, attention to detail. They were proud of their work and it showed. if they don't get promoted next time I'm there, I'm snatching them for my business! Thank you so much. God bless.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My stay lasted a week and a half as I recently relocated to Florida and was looking for properties as well as conducting business. My wife and I needed some important documents scanned. Mr. Richard Lawrence not only scanned them but was kind enough to email them to me and took the time to politely chat while I waited. A few days later, I required new keys for a new check in and Mr.Daniel Vasquez remembered my name and addressed me with sincere respect. Having been to over 30 different Marriot hotels on the east coast from New York to Miami, I would say these two are the top of the service chain. Honestly, I am a pretty laid back man but my wife has high standards. We spend a good deal of time travelling. When you're tired and need a place to recover, good, genuine service is becoming rare. Even at Marriott. Thankfully, a few god sends like these two showed up and I couldn't be more grateful for their caring, kindness, attention to detail. They were proud of their work and it showed. if they don't get promoted next time I'm there, I'm snatching them for my business! Thank you so much. God bless.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r471222751-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>471222751</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Nice Warm pool and pretty good breakfast, but power was out on floor!</t>
+  </si>
+  <si>
+    <t>I have been to many hotels, this hotel was very clean and air condition was terrific, quite, but blows on you in bedroom.  Room had 2 TV's, full refrigerator, and full kitchen.  Breakfast had bacon and make your own waffles which is pretty good for a Town Place and lots of cereal choices.  Restaurants were within a short drive or longer walk.  Room was very clean.  Pool was nice and warm. thanks for the heat!  No whirlpool.  Workout room was very small, no wipes for cleanliness, not much choice on equipment though.  Everything worked in the room too.  Hotel is a bit difficult to find, so be sure you have a good GPS. Hotel is way off the road.However, upon waking in the morning from our 1 night stay.  We were passing through to the Keys.  The lights in the hall and elevator area were out making it very dark!  We were never contacted or told about this.  Hotel should have called the rooms affected by the Problem.  Without lights, it was very dangerous.  We were never contacted or told about the problem.  Should have been called.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>I have been to many hotels, this hotel was very clean and air condition was terrific, quite, but blows on you in bedroom.  Room had 2 TV's, full refrigerator, and full kitchen.  Breakfast had bacon and make your own waffles which is pretty good for a Town Place and lots of cereal choices.  Restaurants were within a short drive or longer walk.  Room was very clean.  Pool was nice and warm. thanks for the heat!  No whirlpool.  Workout room was very small, no wipes for cleanliness, not much choice on equipment though.  Everything worked in the room too.  Hotel is a bit difficult to find, so be sure you have a good GPS. Hotel is way off the road.However, upon waking in the morning from our 1 night stay.  We were passing through to the Keys.  The lights in the hall and elevator area were out making it very dark!  We were never contacted or told about this.  Hotel should have called the rooms affected by the Problem.  Without lights, it was very dangerous.  We were never contacted or told about the problem.  Should have been called.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r469957101-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>469957101</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Wonderful one night stay...wanted to stay longer!</t>
+  </si>
+  <si>
+    <t>We checked in for one night and the hotel was new and the room was spacious and clean. The staff were polite and accommodating. We used the pool which was small and a little too warm for my liking. We enjoyed it anyway. The breakfast in the morning had a good selection and the oatmeal was very good. I would definitely stay here again if back in this area in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked in for one night and the hotel was new and the room was spacious and clean. The staff were polite and accommodating. We used the pool which was small and a little too warm for my liking. We enjoyed it anyway. The breakfast in the morning had a good selection and the oatmeal was very good. I would definitely stay here again if back in this area in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r469794756-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>469794756</t>
+  </si>
+  <si>
+    <t>New hotel, great staff</t>
+  </si>
+  <si>
+    <t>Stayed here for Spring Break trip with two teenagers. We had plans in Keys as well as Miami, so this was the perfect in between location. The hotel is very nice. Great closets and storage for long term stay. Staff is very helpful and friendly. Housekeeping staff did an excellent job of taking care of our room! Very affordable for this area too!My only complaint would be there are too few breakfast options.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for Spring Break trip with two teenagers. We had plans in Keys as well as Miami, so this was the perfect in between location. The hotel is very nice. Great closets and storage for long term stay. Staff is very helpful and friendly. Housekeeping staff did an excellent job of taking care of our room! Very affordable for this area too!My only complaint would be there are too few breakfast options.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r468799948-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>468799948</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>The place was perfect. We were in with a group and had 10 rooms. Claudia from sales was more than helpful getting everything setup for us with some amazing rates.  Everyone at the front desk was great and made the check in process very easy, even with 10 rooms and 25 people ready to get to bed at 11 PM.  Hotel is very new, rooms were enormous and very clean, bathrooms and amenities were first class. If I'm in the Miami area again or near Homestead there isn't any other place I would stay! Book it you won't be disappointed!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The place was perfect. We were in with a group and had 10 rooms. Claudia from sales was more than helpful getting everything setup for us with some amazing rates.  Everyone at the front desk was great and made the check in process very easy, even with 10 rooms and 25 people ready to get to bed at 11 PM.  Hotel is very new, rooms were enormous and very clean, bathrooms and amenities were first class. If I'm in the Miami area again or near Homestead there isn't any other place I would stay! Book it you won't be disappointed!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r468546480-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>468546480</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel but with a few teething probs</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights on our road trip around Florida, booking directly with the hotel. We stayed here because we wanted to visit the Everglades, and this was really quite close, comparatively speaking. 
+We had room 428, a one bedroom king suite with full self catering. We went for this better room as the rates, when we booked, were hardly much more than the price of an ordinary bedroom, so it was good value for us. Don't know if this will continue to be the case when the hotel becomes more established, but we thought it was good value.
+The room was huge - fully equipped kitchen, large sitting area, big bedroom, large bathroom. BUT, there was no in-room safe (only safety deposit box at reception), no full length mirror, no wine glasses, and the bathroom door didn't shut properly all a bit surprising for a brand new hotel. 
+The breakfast was adequate, with toast and cereal available, along with fresh fruit, coffee and juices etc, plus yogurts and muffins. However, the breakfast room had about 5 big screen TVs all around it, and although the sound was turned down, there was fairly loud piped pop music playing non stop, which we found rather annoying. Why can't we eat in peace and quiet?
+The front desk staff were charming and helpful and promptly allocated us a 4th floor room after we had said we did not want a...We stayed here for three nights on our road trip around Florida, booking directly with the hotel. We stayed here because we wanted to visit the Everglades, and this was really quite close, comparatively speaking. We had room 428, a one bedroom king suite with full self catering. We went for this better room as the rates, when we booked, were hardly much more than the price of an ordinary bedroom, so it was good value for us. Don't know if this will continue to be the case when the hotel becomes more established, but we thought it was good value.The room was huge - fully equipped kitchen, large sitting area, big bedroom, large bathroom. BUT, there was no in-room safe (only safety deposit box at reception), no full length mirror, no wine glasses, and the bathroom door didn't shut properly all a bit surprising for a brand new hotel. The breakfast was adequate, with toast and cereal available, along with fresh fruit, coffee and juices etc, plus yogurts and muffins. However, the breakfast room had about 5 big screen TVs all around it, and although the sound was turned down, there was fairly loud piped pop music playing non stop, which we found rather annoying. Why can't we eat in peace and quiet?The front desk staff were charming and helpful and promptly allocated us a 4th floor room after we had said we did not want a ground floor room (as stated in our booking form). We made full use of the self catering facilities for all three of the nights we were there, which was great. No balconies in this hotel, but then it is surrounded by interstates and main roads, so it would have been rather noisy if there had been!If we were in the area, we would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sovannkiry T, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights on our road trip around Florida, booking directly with the hotel. We stayed here because we wanted to visit the Everglades, and this was really quite close, comparatively speaking. 
+We had room 428, a one bedroom king suite with full self catering. We went for this better room as the rates, when we booked, were hardly much more than the price of an ordinary bedroom, so it was good value for us. Don't know if this will continue to be the case when the hotel becomes more established, but we thought it was good value.
+The room was huge - fully equipped kitchen, large sitting area, big bedroom, large bathroom. BUT, there was no in-room safe (only safety deposit box at reception), no full length mirror, no wine glasses, and the bathroom door didn't shut properly all a bit surprising for a brand new hotel. 
+The breakfast was adequate, with toast and cereal available, along with fresh fruit, coffee and juices etc, plus yogurts and muffins. However, the breakfast room had about 5 big screen TVs all around it, and although the sound was turned down, there was fairly loud piped pop music playing non stop, which we found rather annoying. Why can't we eat in peace and quiet?
+The front desk staff were charming and helpful and promptly allocated us a 4th floor room after we had said we did not want a...We stayed here for three nights on our road trip around Florida, booking directly with the hotel. We stayed here because we wanted to visit the Everglades, and this was really quite close, comparatively speaking. We had room 428, a one bedroom king suite with full self catering. We went for this better room as the rates, when we booked, were hardly much more than the price of an ordinary bedroom, so it was good value for us. Don't know if this will continue to be the case when the hotel becomes more established, but we thought it was good value.The room was huge - fully equipped kitchen, large sitting area, big bedroom, large bathroom. BUT, there was no in-room safe (only safety deposit box at reception), no full length mirror, no wine glasses, and the bathroom door didn't shut properly all a bit surprising for a brand new hotel. The breakfast was adequate, with toast and cereal available, along with fresh fruit, coffee and juices etc, plus yogurts and muffins. However, the breakfast room had about 5 big screen TVs all around it, and although the sound was turned down, there was fairly loud piped pop music playing non stop, which we found rather annoying. Why can't we eat in peace and quiet?The front desk staff were charming and helpful and promptly allocated us a 4th floor room after we had said we did not want a ground floor room (as stated in our booking form). We made full use of the self catering facilities for all three of the nights we were there, which was great. No balconies in this hotel, but then it is surrounded by interstates and main roads, so it would have been rather noisy if there had been!If we were in the area, we would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r465595349-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>465595349</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>👎🏿</t>
+  </si>
+  <si>
+    <t>For such a new hotel I expected a lot more! In the mornings there's always trash in the hallways by elevators! When my room is serviced the service is horrible. The bed looks worse then when I left. No one pays attention to detail or cares I see...MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>For such a new hotel I expected a lot more! In the mornings there's always trash in the hallways by elevators! When my room is serviced the service is horrible. The bed looks worse then when I left. No one pays attention to detail or cares I see...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r464108071-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>464108071</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Great Property</t>
+  </si>
+  <si>
+    <t>This property is updated and clean. The staff is friendly and very accommodating.  The breakfast was great with a very good variety of items to choose from. The  property is very quiet. Will definiety come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is updated and clean. The staff is friendly and very accommodating.  The breakfast was great with a very good variety of items to choose from. The  property is very quiet. Will definiety come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r462580139-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>462580139</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Great  Hotel  - Sylvia Recalde  ( Manager ) is awesome!</t>
+  </si>
+  <si>
+    <t>I stayed for almost a week at Towneplace Suites while on business in Florida. Brand new building, great central location for my sales visits but most importantly Sylvia Recalde's attention to detail combined with her problem solving skills, made my staying one of the most pleasant ones. As a business traveler ,  I 100% recommend to stay at this new  hotel.   Thank you Sylvia!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Guest Service Supervisor at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2017</t>
+  </si>
+  <si>
+    <t>I stayed for almost a week at Towneplace Suites while on business in Florida. Brand new building, great central location for my sales visits but most importantly Sylvia Recalde's attention to detail combined with her problem solving skills, made my staying one of the most pleasant ones. As a business traveler ,  I 100% recommend to stay at this new  hotel.   Thank you Sylvia!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r462579932-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>462579932</t>
+  </si>
+  <si>
+    <t>Confortable and very nice breakfast</t>
+  </si>
+  <si>
+    <t>This is place was perfect for my business trip. It was very accommodating and the breakfast was really good. I will definitely come back again! Thank you for a great service! I highly recommend it to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is place was perfect for my business trip. It was very accommodating and the breakfast was really good. I will definitely come back again! Thank you for a great service! I highly recommend it to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r462268181-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>462268181</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Great Service &amp; Property</t>
+  </si>
+  <si>
+    <t>We had a group block set up at the hotel for an event at the Homestead Karting facility. Danielle and Claudia (both on sales staff) made sure everything was taken care of for our group, making sure all reservations were accommodated, no matter how last minute they were. Check in was smooth for all guests, and everyone was very satisfied with their stay. Overall it was a great experience for everyone who stayed- great service, great property- and much credit goes to Danielle and Claudia. Would highly recommend to anyone looking to stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>We had a group block set up at the hotel for an event at the Homestead Karting facility. Danielle and Claudia (both on sales staff) made sure everything was taken care of for our group, making sure all reservations were accommodated, no matter how last minute they were. Check in was smooth for all guests, and everyone was very satisfied with their stay. Overall it was a great experience for everyone who stayed- great service, great property- and much credit goes to Danielle and Claudia. Would highly recommend to anyone looking to stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r462091986-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>462091986</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay while visiting Everglades and Biscayne national parks </t>
+  </si>
+  <si>
+    <t>This hotel is very clean with nice king size beds in the bedrooms. The sofa bed has a comfortable mattress. The kitchen facilities are ample and quite nice. A great place for a stay over that is for more than one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very clean with nice king size beds in the bedrooms. The sofa bed has a comfortable mattress. The kitchen facilities are ample and quite nice. A great place for a stay over that is for more than one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r460529233-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>460529233</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>A pleasant surprise, with room to improve</t>
+  </si>
+  <si>
+    <t>I am currently on my last night here of a 4 day business stay.  The location is excellent, and the rooms were a pleasant surprise.  I chose this location after dealing with bugs last month at another hotel across the parking lot.  The service was pleasant when I checked in on Monday evening, and I had groceries from the Public across the street.  The bed was very comfortable, though the bathroom was uncomfortably small - the TP holder was  literally an arm rest.  For some reason, I seem to be cursed by having my room ignored my the cleaning people.  I was out of my room from 8am-noon and 2pm-6pm on Tuesday.  My room had not been serviced and my trash was overflowing.  On my way out on Wednesday morning, I stopped and asked to have my room serviced before I returned at noon.  It was, and all was right with the world.  I left my room again at 8am on Thursday morning, and had a letter on the doorknob about maintenance to be performed between 8am and 6pm.  I stopped at the front desk and again asked if my room could be serviced by noon, and also if the maintenance could be performed early as well since I would be in the room working in the afternoon.  There was a manager lingering around the front desk, and I heard him ask the clerk for my room number as I...I am currently on my last night here of a 4 day business stay.  The location is excellent, and the rooms were a pleasant surprise.  I chose this location after dealing with bugs last month at another hotel across the parking lot.  The service was pleasant when I checked in on Monday evening, and I had groceries from the Public across the street.  The bed was very comfortable, though the bathroom was uncomfortably small - the TP holder was  literally an arm rest.  For some reason, I seem to be cursed by having my room ignored my the cleaning people.  I was out of my room from 8am-noon and 2pm-6pm on Tuesday.  My room had not been serviced and my trash was overflowing.  On my way out on Wednesday morning, I stopped and asked to have my room serviced before I returned at noon.  It was, and all was right with the world.  I left my room again at 8am on Thursday morning, and had a letter on the doorknob about maintenance to be performed between 8am and 6pm.  I stopped at the front desk and again asked if my room could be serviced by noon, and also if the maintenance could be performed early as well since I would be in the room working in the afternoon.  There was a manager lingering around the front desk, and I heard him ask the clerk for my room number as I walked away.  I returned to my room at 1pm and my room had not been serviced.  I literally have three full grocery bags of trash and garbage on my counter.  I left for an afternoon meeting and again asked for my room to be serviced.  I returned near 6pm and my room still had not been cleaned.  I will be checking out before 7am tomorrow for a flight, and am very disappointed at this last impression.Overall, the location is great and the facility is nice, but when you have a kitchen or kitchenette, you really need to make sure the garbage is collected every day.  I may try here one more time as it is still relatively new and may still be trying to get there procedures in place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard L, Front Office Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded May 6, 2017</t>
+  </si>
+  <si>
+    <t>I am currently on my last night here of a 4 day business stay.  The location is excellent, and the rooms were a pleasant surprise.  I chose this location after dealing with bugs last month at another hotel across the parking lot.  The service was pleasant when I checked in on Monday evening, and I had groceries from the Public across the street.  The bed was very comfortable, though the bathroom was uncomfortably small - the TP holder was  literally an arm rest.  For some reason, I seem to be cursed by having my room ignored my the cleaning people.  I was out of my room from 8am-noon and 2pm-6pm on Tuesday.  My room had not been serviced and my trash was overflowing.  On my way out on Wednesday morning, I stopped and asked to have my room serviced before I returned at noon.  It was, and all was right with the world.  I left my room again at 8am on Thursday morning, and had a letter on the doorknob about maintenance to be performed between 8am and 6pm.  I stopped at the front desk and again asked if my room could be serviced by noon, and also if the maintenance could be performed early as well since I would be in the room working in the afternoon.  There was a manager lingering around the front desk, and I heard him ask the clerk for my room number as I...I am currently on my last night here of a 4 day business stay.  The location is excellent, and the rooms were a pleasant surprise.  I chose this location after dealing with bugs last month at another hotel across the parking lot.  The service was pleasant when I checked in on Monday evening, and I had groceries from the Public across the street.  The bed was very comfortable, though the bathroom was uncomfortably small - the TP holder was  literally an arm rest.  For some reason, I seem to be cursed by having my room ignored my the cleaning people.  I was out of my room from 8am-noon and 2pm-6pm on Tuesday.  My room had not been serviced and my trash was overflowing.  On my way out on Wednesday morning, I stopped and asked to have my room serviced before I returned at noon.  It was, and all was right with the world.  I left my room again at 8am on Thursday morning, and had a letter on the doorknob about maintenance to be performed between 8am and 6pm.  I stopped at the front desk and again asked if my room could be serviced by noon, and also if the maintenance could be performed early as well since I would be in the room working in the afternoon.  There was a manager lingering around the front desk, and I heard him ask the clerk for my room number as I walked away.  I returned to my room at 1pm and my room had not been serviced.  I literally have three full grocery bags of trash and garbage on my counter.  I left for an afternoon meeting and again asked for my room to be serviced.  I returned near 6pm and my room still had not been cleaned.  I will be checking out before 7am tomorrow for a flight, and am very disappointed at this last impression.Overall, the location is great and the facility is nice, but when you have a kitchen or kitchenette, you really need to make sure the garbage is collected every day.  I may try here one more time as it is still relatively new and may still be trying to get there procedures in place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r457340490-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>457340490</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel -cheap breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here on a Friday night. The hotel is very new and quite modern. The rooms are nice and they have a pleasant outside patio with 2 Weber BBQ'S. Staff very nice , but for over $200 you would think the "free" breakfast wouldn't be so cheap.If you like thawed tiny muffins and microwaved pre-cooked eggs this place is for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>TripSouthAmerica, General Manager at Towneplace Suites by Marriott Miami Homestead, responded to this reviewResponded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here on a Friday night. The hotel is very new and quite modern. The rooms are nice and they have a pleasant outside patio with 2 Weber BBQ'S. Staff very nice , but for over $200 you would think the "free" breakfast wouldn't be so cheap.If you like thawed tiny muffins and microwaved pre-cooked eggs this place is for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60739-d10625381-r444534794-Towneplace_Suites_by_Marriott_Miami_Homestead-Homestead_Florida.html</t>
+  </si>
+  <si>
+    <t>444534794</t>
+  </si>
+  <si>
+    <t>12/15/2016</t>
+  </si>
+  <si>
+    <t>WONDERFUL STAY</t>
+  </si>
+  <si>
+    <t>I am SO excited to be the first person to review!!  This hotel has been open only about 2 weeks.  It is GORGEOUS.  The interior design is beautiful - lots of bright open space with all the usual, business center area, big TV area, wonderful breakfast area, etc.  There's a pool and a gym, but I don't use any of that.  There's a really nice coin laundry room (better than most).
+My room was spectacular.  If you've never stayed in a Towneplace Suites, they are like fully-equipped apartments.  Full frig, stovetop burners, toaster, all dishes, work desk, sofa, etc.  They are perfect for long-term stays.  The bed was wonderfully comfortable, with crisp, clean sheets and fantastic pillows.  The bathroom is very functional and roomy, and, of course, clean.  I like that the bathroom had a glass shower, rather than a tub.  Tubs are pretty useless to me.  If you require a tub, be sure and ask at the front desk - because my bathroom only had a stand-up shower.  The room has an incredible closet - better than most hotels; it was a huge closet with all kinds of shelving and hanging space - really nice.
+This area has a lot of stuff around it.  The location is right off the Florida Turnpike (very convenient for getting to the entrance of the Florida Keys and the Speedyway thing).  There are several fast food places, a Publix, and a bunch of...I am SO excited to be the first person to review!!  This hotel has been open only about 2 weeks.  It is GORGEOUS.  The interior design is beautiful - lots of bright open space with all the usual, business center area, big TV area, wonderful breakfast area, etc.  There's a pool and a gym, but I don't use any of that.  There's a really nice coin laundry room (better than most).My room was spectacular.  If you've never stayed in a Towneplace Suites, they are like fully-equipped apartments.  Full frig, stovetop burners, toaster, all dishes, work desk, sofa, etc.  They are perfect for long-term stays.  The bed was wonderfully comfortable, with crisp, clean sheets and fantastic pillows.  The bathroom is very functional and roomy, and, of course, clean.  I like that the bathroom had a glass shower, rather than a tub.  Tubs are pretty useless to me.  If you require a tub, be sure and ask at the front desk - because my bathroom only had a stand-up shower.  The room has an incredible closet - better than most hotels; it was a huge closet with all kinds of shelving and hanging space - really nice.This area has a lot of stuff around it.  The location is right off the Florida Turnpike (very convenient for getting to the entrance of the Florida Keys and the Speedyway thing).  There are several fast food places, a Publix, and a bunch of shops right across the street.  If you want to walk a little ways, there is a regular shopping center with tons of restaurants, shops, everything you could imagine (Ross, Michaels, Red Lobster, Panera, etc).  There is an outlet mall one exit up on the expressway (not within walking distance).  There is a Walmart Superstore also 1 exit up.  This is probably the closest hotel to Everglades National Park - but the park is not within walking distance.  The area seems pretty safe and well lit, and it's a newer area.  Homestead (Baptist) Hospital is right next door (walking distance), and the New Palace Gardens (assisted living) is right across the street.There's plenty of free parking, and everyone at the hotel I came into contact with was super-nice; the front desk staff, housekeeping, and the breakfast room ladies.  Breakfast is a very nice buffet, and is complimentary, and there is plenty of free parking as well (I'm all about free).If I had one complaint, it would be the rate.  The hotel is a tad pricey and I can't figure out why. (I paid $150.)  I guess it is because of that big Speedway thing that's close by.  There are 2 other hotels right next to this one (one is another Marriott), and at the time I was here (Dec 2016), this hotel was the cheapest.  Other than that, there is really nothing I could complain about.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I am SO excited to be the first person to review!!  This hotel has been open only about 2 weeks.  It is GORGEOUS.  The interior design is beautiful - lots of bright open space with all the usual, business center area, big TV area, wonderful breakfast area, etc.  There's a pool and a gym, but I don't use any of that.  There's a really nice coin laundry room (better than most).
+My room was spectacular.  If you've never stayed in a Towneplace Suites, they are like fully-equipped apartments.  Full frig, stovetop burners, toaster, all dishes, work desk, sofa, etc.  They are perfect for long-term stays.  The bed was wonderfully comfortable, with crisp, clean sheets and fantastic pillows.  The bathroom is very functional and roomy, and, of course, clean.  I like that the bathroom had a glass shower, rather than a tub.  Tubs are pretty useless to me.  If you require a tub, be sure and ask at the front desk - because my bathroom only had a stand-up shower.  The room has an incredible closet - better than most hotels; it was a huge closet with all kinds of shelving and hanging space - really nice.
+This area has a lot of stuff around it.  The location is right off the Florida Turnpike (very convenient for getting to the entrance of the Florida Keys and the Speedyway thing).  There are several fast food places, a Publix, and a bunch of...I am SO excited to be the first person to review!!  This hotel has been open only about 2 weeks.  It is GORGEOUS.  The interior design is beautiful - lots of bright open space with all the usual, business center area, big TV area, wonderful breakfast area, etc.  There's a pool and a gym, but I don't use any of that.  There's a really nice coin laundry room (better than most).My room was spectacular.  If you've never stayed in a Towneplace Suites, they are like fully-equipped apartments.  Full frig, stovetop burners, toaster, all dishes, work desk, sofa, etc.  They are perfect for long-term stays.  The bed was wonderfully comfortable, with crisp, clean sheets and fantastic pillows.  The bathroom is very functional and roomy, and, of course, clean.  I like that the bathroom had a glass shower, rather than a tub.  Tubs are pretty useless to me.  If you require a tub, be sure and ask at the front desk - because my bathroom only had a stand-up shower.  The room has an incredible closet - better than most hotels; it was a huge closet with all kinds of shelving and hanging space - really nice.This area has a lot of stuff around it.  The location is right off the Florida Turnpike (very convenient for getting to the entrance of the Florida Keys and the Speedyway thing).  There are several fast food places, a Publix, and a bunch of shops right across the street.  If you want to walk a little ways, there is a regular shopping center with tons of restaurants, shops, everything you could imagine (Ross, Michaels, Red Lobster, Panera, etc).  There is an outlet mall one exit up on the expressway (not within walking distance).  There is a Walmart Superstore also 1 exit up.  This is probably the closest hotel to Everglades National Park - but the park is not within walking distance.  The area seems pretty safe and well lit, and it's a newer area.  Homestead (Baptist) Hospital is right next door (walking distance), and the New Palace Gardens (assisted living) is right across the street.There's plenty of free parking, and everyone at the hotel I came into contact with was super-nice; the front desk staff, housekeeping, and the breakfast room ladies.  Breakfast is a very nice buffet, and is complimentary, and there is plenty of free parking as well (I'm all about free).If I had one complaint, it would be the rate.  The hotel is a tad pricey and I can't figure out why. (I paid $150.)  I guess it is because of that big Speedway thing that's close by.  There are 2 other hotels right next to this one (one is another Marriott), and at the time I was here (Dec 2016), this hotel was the cheapest.  Other than that, there is really nothing I could complain about.More</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +1416,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Everglades-National-Park-Hotels-TownePlace-Suites-By-Marriott-Miami-Homestead.h15191330.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +1789,3462 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>65064</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>83</v>
+      </c>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>101</v>
+      </c>
+      <c r="X12" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>122</v>
+      </c>
+      <c r="X14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>162</v>
+      </c>
+      <c r="X18" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>171</v>
+      </c>
+      <c r="X19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>171</v>
+      </c>
+      <c r="X20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>200</v>
+      </c>
+      <c r="X23" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J24" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>214</v>
+      </c>
+      <c r="X25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" t="s">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>223</v>
+      </c>
+      <c r="X26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>249</v>
+      </c>
+      <c r="X29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>257</v>
+      </c>
+      <c r="X30" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>248</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>248</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>273</v>
+      </c>
+      <c r="X32" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>276</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>282</v>
+      </c>
+      <c r="X33" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
+        <v>288</v>
+      </c>
+      <c r="L34" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>290</v>
+      </c>
+      <c r="X34" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>290</v>
+      </c>
+      <c r="X35" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>300</v>
+      </c>
+      <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>34</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>304</v>
+      </c>
+      <c r="X36" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>312</v>
+      </c>
+      <c r="X37" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>314</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>315</v>
+      </c>
+      <c r="J38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K38" t="s">
+        <v>317</v>
+      </c>
+      <c r="L38" t="s">
+        <v>318</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>319</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>320</v>
+      </c>
+      <c r="X38" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>324</v>
+      </c>
+      <c r="J39" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" t="s">
+        <v>326</v>
+      </c>
+      <c r="L39" t="s">
+        <v>327</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>319</v>
+      </c>
+      <c r="O39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>328</v>
+      </c>
+      <c r="X39" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>331</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>332</v>
+      </c>
+      <c r="J40" t="s">
+        <v>333</v>
+      </c>
+      <c r="K40" t="s">
+        <v>334</v>
+      </c>
+      <c r="L40" t="s">
+        <v>335</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>319</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>336</v>
+      </c>
+      <c r="X40" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>336</v>
+      </c>
+      <c r="X41" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" t="s">
+        <v>350</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>344</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>351</v>
+      </c>
+      <c r="X42" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>344</v>
+      </c>
+      <c r="O43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>336</v>
+      </c>
+      <c r="X43" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>356</v>
+      </c>
+      <c r="K44" t="s">
+        <v>362</v>
+      </c>
+      <c r="L44" t="s">
+        <v>363</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>344</v>
+      </c>
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>336</v>
+      </c>
+      <c r="X44" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>366</v>
+      </c>
+      <c r="J45" t="s">
+        <v>367</v>
+      </c>
+      <c r="K45" t="s">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s">
+        <v>369</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>344</v>
+      </c>
+      <c r="O45" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>336</v>
+      </c>
+      <c r="X45" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>184</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>376</v>
+      </c>
+      <c r="X46" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>344</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>384</v>
+      </c>
+      <c r="X47" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>387</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" t="s">
+        <v>389</v>
+      </c>
+      <c r="K48" t="s">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s">
+        <v>391</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>184</v>
+      </c>
+      <c r="O48" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>336</v>
+      </c>
+      <c r="X48" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>394</v>
+      </c>
+      <c r="J49" t="s">
+        <v>395</v>
+      </c>
+      <c r="K49" t="s">
+        <v>396</v>
+      </c>
+      <c r="L49" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>184</v>
+      </c>
+      <c r="O49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>398</v>
+      </c>
+      <c r="X49" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>402</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>403</v>
+      </c>
+      <c r="L50" t="s">
+        <v>404</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>184</v>
+      </c>
+      <c r="O50" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>376</v>
+      </c>
+      <c r="X50" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>406</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>407</v>
+      </c>
+      <c r="J51" t="s">
+        <v>408</v>
+      </c>
+      <c r="K51" t="s">
+        <v>409</v>
+      </c>
+      <c r="L51" t="s">
+        <v>410</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>411</v>
+      </c>
+      <c r="O51" t="s">
+        <v>66</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>376</v>
+      </c>
+      <c r="X51" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>184</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>376</v>
+      </c>
+      <c r="X52" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>419</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>420</v>
+      </c>
+      <c r="J53" t="s">
+        <v>421</v>
+      </c>
+      <c r="K53" t="s">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s">
+        <v>423</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>184</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>424</v>
+      </c>
+      <c r="X53" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>431</v>
+      </c>
+      <c r="X54" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>434</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>435</v>
+      </c>
+      <c r="J55" t="s">
+        <v>436</v>
+      </c>
+      <c r="K55" t="s">
+        <v>437</v>
+      </c>
+      <c r="L55" t="s">
+        <v>438</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>439</v>
+      </c>
+      <c r="O55" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>431</v>
+      </c>
+      <c r="X55" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +5266,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>441</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>442</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>444</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>446</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>447</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>449</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>65064</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>457</v>
+      </c>
+      <c r="I2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
